--- a/Check24_testcases.xlsx
+++ b/Check24_testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Test Cases</t>
   </si>
@@ -260,6 +260,33 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Accessibility: Verify Tabbing and focus using keyboard appears</t>
+  </si>
+  <si>
+    <t>Accessibility:Verify the page is responsive</t>
+  </si>
+  <si>
+    <t>Accesibility:Verify up and down keyboard arrows work</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>Accessibility: Verify User Is input data using enter key</t>
   </si>
 </sst>
 </file>
@@ -318,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -331,6 +358,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,16 +667,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,7 +687,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -672,7 +706,7 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -714,7 +748,9 @@
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -731,7 +767,9 @@
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
@@ -748,7 +786,9 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
@@ -765,7 +805,9 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
@@ -782,11 +824,13 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -799,7 +843,9 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
@@ -816,7 +862,9 @@
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
@@ -833,7 +881,9 @@
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
@@ -850,7 +900,9 @@
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
@@ -867,7 +919,9 @@
       <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
@@ -884,11 +938,13 @@
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -901,7 +957,9 @@
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
@@ -918,7 +976,9 @@
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
@@ -935,11 +995,13 @@
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -952,11 +1014,13 @@
       <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -969,7 +1033,9 @@
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
@@ -983,12 +1049,82 @@
       <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
